--- a/apps/condo/public/import/propertyMeter/es/propertyMeter-import-example.xlsx
+++ b/apps/condo/public/import/propertyMeter/es/propertyMeter-import-example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Dirección</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Automático</t>
+  </si>
+  <si>
+    <t>Fecha de clausura</t>
   </si>
   <si>
     <t>Av. de la Victoria, 27, Madrid</t>
@@ -115,7 +118,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -232,31 +241,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="62" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="62" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -478,12 +487,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -515,10 +524,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -757,12 +766,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1066,10 +1075,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1314,7 +1323,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1327,7 +1336,8 @@
     <col min="5" max="8" width="12.6719" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8516" style="1" customWidth="1"/>
     <col min="10" max="16" width="12.6719" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.4141" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -1379,13 +1389,16 @@
       <c r="P1" t="s" s="7">
         <v>15</v>
       </c>
+      <c r="Q1" t="s" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -1421,13 +1434,16 @@
         <v>44221</v>
       </c>
       <c r="P2" s="12"/>
+      <c r="Q2" s="12">
+        <v>44586</v>
+      </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1463,13 +1479,14 @@
         <v>44221</v>
       </c>
       <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -1505,13 +1522,14 @@
         <v>44221</v>
       </c>
       <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -1547,13 +1565,14 @@
         <v>44221</v>
       </c>
       <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -1593,13 +1612,14 @@
         <v>44221</v>
       </c>
       <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -1639,13 +1659,14 @@
         <v>44221</v>
       </c>
       <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="7">
         <v>20</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>19</v>
       </c>
       <c r="C8" s="10">
         <v>11</v>
@@ -1685,13 +1706,14 @@
         <v>44221</v>
       </c>
       <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10">
         <v>11</v>
@@ -1727,13 +1749,14 @@
         <v>44221</v>
       </c>
       <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="10">
         <v>22</v>
@@ -1769,13 +1792,14 @@
         <v>44221</v>
       </c>
       <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10">
         <v>33</v>
@@ -1811,6 +1835,7 @@
         <v>44221</v>
       </c>
       <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/apps/condo/public/import/propertyMeter/es/propertyMeter-import-example.xlsx
+++ b/apps/condo/public/import/propertyMeter/es/propertyMeter-import-example.xlsx
@@ -61,7 +61,7 @@
     <t>Automático</t>
   </si>
   <si>
-    <t>Fecha de clausura</t>
+    <t>Fecha de desmantelamiento</t>
   </si>
   <si>
     <t>Av. de la Victoria, 27, Madrid</t>
@@ -1336,7 +1336,7 @@
     <col min="5" max="8" width="12.6719" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8516" style="1" customWidth="1"/>
     <col min="10" max="16" width="12.6719" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.4141" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1719" style="1" customWidth="1"/>
     <col min="18" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/apps/condo/public/import/propertyMeter/es/propertyMeter-import-example.xlsx
+++ b/apps/condo/public/import/propertyMeter/es/propertyMeter-import-example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Dirección</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Automático</t>
+  </si>
+  <si>
+    <t>Fecha de desmantelamiento</t>
   </si>
   <si>
     <t>Av. de la Victoria, 27, Madrid</t>
@@ -115,7 +118,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +134,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -232,31 +241,31 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="62" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="62" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -478,12 +487,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -515,10 +524,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -757,12 +766,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1066,10 +1075,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1314,7 +1323,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1327,7 +1336,8 @@
     <col min="5" max="8" width="12.6719" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.8516" style="1" customWidth="1"/>
     <col min="10" max="16" width="12.6719" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.6719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.1719" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -1379,13 +1389,16 @@
       <c r="P1" t="s" s="7">
         <v>15</v>
       </c>
+      <c r="Q1" t="s" s="7">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -1421,13 +1434,16 @@
         <v>44221</v>
       </c>
       <c r="P2" s="12"/>
+      <c r="Q2" s="12">
+        <v>44586</v>
+      </c>
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -1463,13 +1479,14 @@
         <v>44221</v>
       </c>
       <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -1505,13 +1522,14 @@
         <v>44221</v>
       </c>
       <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -1547,13 +1565,14 @@
         <v>44221</v>
       </c>
       <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -1593,13 +1612,14 @@
         <v>44221</v>
       </c>
       <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -1639,13 +1659,14 @@
         <v>44221</v>
       </c>
       <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="7">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s" s="7">
         <v>20</v>
-      </c>
-      <c r="B8" t="s" s="7">
-        <v>19</v>
       </c>
       <c r="C8" s="10">
         <v>11</v>
@@ -1685,13 +1706,14 @@
         <v>44221</v>
       </c>
       <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="10">
         <v>11</v>
@@ -1727,13 +1749,14 @@
         <v>44221</v>
       </c>
       <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="10">
         <v>22</v>
@@ -1769,13 +1792,14 @@
         <v>44221</v>
       </c>
       <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10">
         <v>33</v>
@@ -1811,6 +1835,7 @@
         <v>44221</v>
       </c>
       <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
